--- a/dataset_stats.xlsx
+++ b/dataset_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,10 +559,10 @@
         <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G6" t="n">
-        <v>740</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7">
@@ -609,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G9" t="n">
-        <v>1221</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="10">
@@ -1034,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25">
@@ -1047,171 +1047,196 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F25" t="n">
         <v>183</v>
       </c>
       <c r="G25" t="n">
-        <v>3324</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Matreyek - PTEN - VampSeq</t>
+          <t>Kotler - TP53 - RelativeFitnessHCT116</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>423</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="G26" t="n">
-        <v>4112</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Matreyek - TPMT - VampSeq</t>
+          <t>Matreyek - PTEN - VampSeq</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>423</v>
       </c>
       <c r="E27" t="n">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="F27" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G27" t="n">
-        <v>3689</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Mighell - PTEN - lipidPhosphataseAssay</t>
+          <t>Matreyek - TPMT - VampSeq</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>667</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G28" t="n">
-        <v>7637</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Radford - DDX3X - survivalAssessmentAssay</t>
+          <t>Mighell - PTEN - lipidPhosphataseAssay</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>126</v>
+        <v>667</v>
       </c>
       <c r="E29" t="n">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4514</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>vanLoggerenberg - HMBS - erythroid</t>
+          <t>Radford - DDX3X - survivalAssessmentAssay</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E30" t="n">
-        <v>452</v>
+        <v>315</v>
       </c>
       <c r="F30" t="n">
-        <v>301</v>
+        <v>641</v>
       </c>
       <c r="G30" t="n">
-        <v>5876</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>vanLoggerenberg - HMBS - ubiquitous</t>
+          <t>vanLoggerenberg - HMBS - erythroid</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
       </c>
       <c r="D31" t="n">
+        <v>142</v>
+      </c>
+      <c r="E31" t="n">
+        <v>452</v>
+      </c>
+      <c r="F31" t="n">
+        <v>301</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>vanLoggerenberg - HMBS - ubiquitous</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>34</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
         <v>130</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E32" t="n">
         <v>428</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F32" t="n">
         <v>288</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>5464</v>
       </c>
     </row>
